--- a/doc/张非凡.xlsx
+++ b/doc/张非凡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,38 @@
   </si>
   <si>
     <t>学习xml的配置要素，重构了dao层和base层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.19  14：30-17：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将项目传送在git上进行协同开发使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.20  15：30-17：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在eclipse上进行git的基本操作push，pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.22  13：00-14：50 16：30-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习分支的使用和git的基本使用流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.21  10：30-11：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看dao层错误，寻找解决方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,6 +262,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -246,7 +346,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -525,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -691,6 +791,38 @@
       </c>
       <c r="C19" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/张非凡.xlsx
+++ b/doc/张非凡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>查看dao层错误，寻找解决方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.26  12：00-16：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正dao层错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -823,6 +831,14 @@
       </c>
       <c r="C23" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/doc/张非凡.xlsx
+++ b/doc/张非凡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>改正dao层错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.27  18：30-21：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service层的实体管理器和方法的实现与测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.28  13：44-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -839,6 +851,19 @@
       </c>
       <c r="C24" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/doc/张非凡.xlsx
+++ b/doc/张非凡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,7 +222,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.5.28  13：44-</t>
+    <t>2019.5.29  18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对学生表格的读取并存入数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.28  13：44-17：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成student实体的构建并学习poi的基本操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -863,7 +875,18 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
